--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.5.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.2</t>
+    <t>0.5.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.3</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.6.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.3</t>
+    <t>0.6.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.4</t>
+    <t>0.6.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.5</t>
+    <t>0.6.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27</t>
+    <t>2024-06-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -482,7 +482,7 @@
     <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
+    <t xml:space="preserve">TODO / ESS / Krav: ForskrivningsID. Det er ytret behov for en (business-)identifier for forskrivning. Dette finnes ikke hvis det ikke er snakk om en faktisk instans, som f.eks. en M1 Resept (eResept). Mulig dette kan benyttes for interne ID'er ved f.eks. forordning på sykehus. Uvisst behov. </t>
   </si>
   <si>
     <t>Request.identifier</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.6</t>
+    <t>0.6.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.7</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.4</t>
+    <t>0.8.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
+++ b/currentbuild/StructureDefinition-Legemiddelrekvirering.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
